--- a/experiment_results/5716GOLFWINE.xlsx
+++ b/experiment_results/5716GOLFWINE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Hiking', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking', 'Wildlife Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13627,7 +13627,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874HIKE</t>
+          <t>PRODUCTCODE: 3142MONT</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Montserrat, Barcelona's holy mountain, on a half or full-day tour. Embark on a captivating journey as you take a soft hiking with the best specialized guide. Board theMontserrat Railway to observe the area's fascinating flora and fauna.</t>
+          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery &amp; Hiking Experience from Barcelona</t>
+          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 1480</t>
+          <t>TotalReviews: 993</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT</t>
+          <t>PRODUCTCODE: 9866P27</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
+          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
+          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>TotalReviews: 993</t>
+          <t>TotalReviews: 276</t>
         </is>
       </c>
       <c r="B885" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 228699MONTSERRATEXC</t>
+          <t>PRODUCTCODE: 3731P216</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Only tour that provides tickets to all areas that allow visitors to Monserrat. Visit the Santa Maria of Montserrat Abbey with your guide. Admire the abbey's impressive Gothic and renaissance architecture.</t>
+          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour with Black Madonna, Museum &amp; Liquor Tasting</t>
+          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 758</t>
+          <t>TotalReviews: 133</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONTSAGRADA</t>
+          <t>PRODUCTCODE: 7548P3</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Small-group tour from Barcelona to Catalonia's Montserrat. Head to the top of this rugged mountain to see its main attraction. Upgrade to include skip-the-line ticket to La Sagrada Familia basilica.</t>
+          <t>Summarized description: Half-day tour from Barcelona. Afternoon is the best time because there are less people in Montserrat than in the morning. Learn about the history of the area and 4,051-foot-tall (1,234-meter) MontserRat mountain from your guide.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Half Day &amp; Optional Sagrada Familia Small Group Tour </t>
+          <t>Title: Half-Day Guided Montserrat Tour in Barcelona</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 507</t>
+          <t>TotalReviews: 130</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P27</t>
+          <t>PRODUCTCODE: 5689P13</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
+          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
+          <t>Title: Montserrat Private Guided Tour with Pick up</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 276</t>
+          <t>TotalReviews: 84</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62766P4</t>
+          <t>PRODUCTCODE: 6874P159</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: We will start the day by visiting the Benedictine Abbey of Santa Maria de Montserrat. Then we will go to the nearby town of São Sebastián, where we will stay for a few days. We will end the day with a trip to the town of Montserrrat, which is famous for its natural beauty.</t>
+          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Montserrat Hiking Off the Beaten Path &amp; Monastery. Small Group Tour</t>
+          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 174</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P216</t>
+          <t>PRODUCTCODE: 7071P6</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
+          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
+          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 133</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P34</t>
+          <t>PRODUCTCODE: 14218P6</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: The Monastery of Montserrat is one of Spain's most popular tourist attractions. Enjoy a tour of the monastery, followed by a tasting of locally produced liquors.</t>
+          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Montserrat Full Day Tour with Farmhouse Lunch and Winery Visit</t>
+          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 117</t>
+          <t>TotalReviews: 46</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161438P2</t>
+          <t>PRODUCTCODE: 9866P50</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat’s Natural Park and its Monastery with a passionate local guide in small groups up to a maximum 8 people. We will walk on the same paths used by pilgrims hundreds of years ago, we will get inspired by Montserrat's fascinating flora and fauna.</t>
+          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: Montserrat Monastery &amp; Scenic Mountain Hike</t>
+          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 107</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161438P1</t>
+          <t>PRODUCTCODE: 7548P4</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: The first place we visit in Montserrat’s Natural Park is its Benedictine Monastery, first built on the 11th century. The Monastery is a strong symbol of spirituality and unity for the local people. During the hike we walk on the same paths used by pilgrims hundreds of years ago.</t>
+          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery and Hiking Experience from Barcelona</t>
+          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P13</t>
+          <t>PRODUCTCODE: 110975P16</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
+          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Guided Tour with Pick up</t>
+          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 84</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P159</t>
+          <t>PRODUCTCODE: 3142MONT_P</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
+          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
+          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7071P6</t>
+          <t>PRODUCTCODE: 17377P24</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
+          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
+          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P6</t>
+          <t>PRODUCTCODE: 25359P18</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
+          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
+          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 46</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P50</t>
+          <t>PRODUCTCODE: 9866P49</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
+          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
+          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P4</t>
+          <t>PRODUCTCODE: 24380P353</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
+          <t>Summarized description: Montserrat is a must-see destination for families. You and your kids can visit the farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
+          <t>Title: Family Day Trip: Magical Montserrat</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P16</t>
+          <t>PRODUCTCODE: 35099P6</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
+          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
+          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140VIPWINES</t>
+          <t>PRODUCTCODE: 155988P5</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Llopart is the oldest and most spectacular Llopart wine boutique and wine cellar. Sample three of their olive oils in the family farmhouse. Enjoy a wine and sparkling wine tasting paired with a brunch of local products.</t>
+          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Wine and Cava Tour from Barcelona with Tastings and Brunch</t>
+          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P24</t>
+          <t>PRODUCTCODE: 23558P6</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
+          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
+          <t>Title: Private Tour: Montserrat and Cava Visit</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P18</t>
+          <t>PRODUCTCODE: 7801P8</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
+          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
+          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P105</t>
+          <t>PRODUCTCODE: 108212P5</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a symbol for Catalonia and has become a point of pilgrimage for believers. Enjoy a memorable day out in Montserrat and escape the hustle and bustle of Barcelona.</t>
+          <t>Summarized description: The tour includes a private car trip to Montserrat Mountain and monasterial area. We'll hear the singuings of the Choir (according to availability - Tickets are extra payment). We'll visit Penedés region and visit one of the exclussive oldest wineries at the area.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery, Trekking &amp; Lunch in a Farmhouse - Premium Small Group Tour</t>
+          <t>Title: Montserrat &amp; best winery private tour experience with a local expertise</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P18</t>
+          <t>PRODUCTCODE: 239937P18</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the most significant mountain in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat.</t>
+          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat at your Own Pace from Barcelona</t>
+          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P19</t>
+          <t>PRODUCTCODE: 9866P131</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most interesting places near Barcelona. Visit its Magic Mountain and the Montserrat Museum which is a veritable treasure trove of works of art.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat with Museum Ticket from Barcelona</t>
+          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P20</t>
+          <t>PRODUCTCODE: 24338P54</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Montserrat is a unique wonder in Catalonia and in the world. Sant Joan Funicular Railway offers a unique experience with the best panoramic bird’s-eye views of the mountain and the Monastery.</t>
+          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat with Cog-Wheel from Barcelona</t>
+          <t>Title: Montserrat Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P10</t>
+          <t>PRODUCTCODE: 108053P19</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a beautiful and mystic mountain that will surprise you. With this tour you will have the opportunity to access places that other tours can not. Exclusive access to the Sacristy and the Crypt.</t>
+          <t>Summarized description: This 8 hour tour offers the posibility to discover the nearest wine region near Barcelona (Penedes) This region is known for the sparkling wine production, our "CAVA", our local champagne.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: The Complete Montserrat Premium Tour</t>
+          <t>Title: Wineries &amp; Montserrat private tour (8 hours)</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7801P3</t>
+          <t>PRODUCTCODE: 117626P17</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Visit a 14th Century winery with views over its vineyards, The Med Sea and beyond, guided by a professional sommelier. Enjoy a wine taste of 4 organic wines, paired with Spanish tapas.</t>
+          <t>Summarized description: The best way to visit this place, so special for the people of Barcelona, is to do it with a local driver/guide. Your driver will pick you up in a luxury vehicle, during the way to Montserrat he will explain the history and legends of this sacred place.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Sailing Wine and Tapas - Premium small group</t>
+          <t>Title: Half Day Private Montserrat Tour</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P4</t>
+          <t>PRODUCTCODE: 17377P11</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Penedés vineyards are set against the backdrop of the majestic mountain of Montserrat. The estate vines cover the western slopes of the Ordal mountain range known as ‘Costers d’Ordal’</t>
+          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Horseback Ride, Penedés, Wine Tasting &amp; Tapas Lunch</t>
+          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20115P4</t>
+          <t>PRODUCTCODE: 239922P5</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Wine expert will give insights into the world of Spanish wine. Taste 8 unique wines, eat delicious food pairings at century-old taverns, and wander through medieval streets.</t>
+          <t>Summarized description: Explore the mountain of Montserrat on this day trip from Barcelona. Travel by bus to the mountain and take the cogwheel train to a viewpoint on top of the mountain. Visit the Benedictine Abbey and see the famed Virgin of MontSerrat sanctuary.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Wine and Tapas Evening Experience</t>
+          <t>Title: Montserrat Half Day Guided Tour And Round trip Transport</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35099P6</t>
+          <t>PRODUCTCODE: 8647P115</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
+          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
+          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P5</t>
+          <t>PRODUCTCODE: 196771P7</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
+          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
+          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P6</t>
+          <t>PRODUCTCODE: 244199P34</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
+          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Montserrat and Cava Visit</t>
+          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7801P8</t>
+          <t>PRODUCTCODE: 137266P2168</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
+          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
+          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144682P54</t>
+          <t>PRODUCTCODE: 35102P11</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: We will start our tour on the outskirts of Barcelona, on the most emblematic peak of Catalonia, the Montserrat massif. We will visit the wine cellar of the Torres Family, who produce some of the best wines with strains of Cabernet Sauvignon.</t>
+          <t>Summarized description: The sights of Montserrat will be introduced in an easy and friendly way. Local gastronomy and wine tasting will make your experience unforgettable.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Montserrat wine tasting &amp; Sitges -Reduced group hotel pick up from Barcelona</t>
+          <t>Title: Pearl of Catalonia, Private Tour to Montserrat, Lunch and Wine Testing.</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P18</t>
+          <t>PRODUCTCODE: 250934P5</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
+          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
+          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P131</t>
+          <t>PRODUCTCODE: 369086P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
+          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
+          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15693P53</t>
+          <t>PRODUCTCODE: 101102P2</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Tour one of the best small-batch cava producers in Spain. Enjoy a gourmet lunch of fresh, locally sourced ingredients in the Penedès region.</t>
+          <t>Summarized description: Montserrat is Catalunya's pride and a part of the Santiago de Compostela pilgrim route. The Benedictine monks produce some extraordinary liqueurs using local herbs and fruits. Don't miss the opportunity to hear the most famous children choir "Escolania"</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Early Entrance Montserrat &amp; Gourmet Cava Tour with Lunch at Historical Vineyard</t>
+          <t>Title: Awesome Montserrat private tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P54</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Montserrat Day Trip from Barcelona</t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P5</t>
+          <t>PRODUCTCODE: 112780P22</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the mountain of Montserrat on this day trip from Barcelona. Travel by bus to the mountain and take the cogwheel train to a viewpoint on top of the mountain. Visit the Benedictine Abbey and see the famed Virgin of MontSerrat sanctuary.</t>
+          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half Day Guided Tour And Round trip Transport</t>
+          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P115</t>
+          <t>PRODUCTCODE: 183616P4</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
+          <t>Summarized description: Montserrat is also known as the "Hometown of the Catalan Heart" It is a sacred place for the religion of Mary. The mountain railway runs only once an hour, so you cannot get on during the tour time.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
+          <t>Title: Montserrat afternoon tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P4</t>
+          <t>PRODUCTCODE: 203774P2</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. The tour includes a visit to the monastery, our lady of MontSerrat (the black madonna) and enjoy the concert of the boys choir.</t>
+          <t>Summarized description: Montserrat is an always enjoyable visit. The environment, nature, spirituality, there is always a feeling of well-being after the visit. Enjoy a different gastronomic experience to any restaurant that can be found in a big city.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Experience Montserrat (5 hours)</t>
+          <t>Title: Montserrat Tour, Lunch &amp; Caves</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P21</t>
+          <t>PRODUCTCODE: 239937P88</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat and the Penedes wine region are the heart of the cava and wine production in Catalonia. Visit the most famousmonastery of Europe at 1,236 metres (4,055 ft) above the valley floor and the Black Madonna.</t>
+          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Private Small Group Full Day Tour- Montserrat and Cava Visit with Lunch and Transportation</t>
+          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 256671P1</t>
+          <t>PRODUCTCODE: 108053P3</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalunya’s pride, a very strange shaped mountain with a famous monastery. The home of the Black Madonna and a part of the famous Santiago de Compostela pilgrim route. The Benedictine monks produce some extraordinary liqueurs using local herbs and fruits and their cuisine is also a culinary delight.</t>
+          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. duration of the tour: 5 hours from pick up time until drop off. you will have 3 hours to visit. the monastery, our lady of Montser rat (the black madonna) and enjoy the concert of the boys choir.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Mysterious Montserrat Half Day Guided Tour</t>
+          <t>Title: Experience Montserrat (5 hours)</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172305P107</t>
+          <t>PRODUCTCODE: 239937P4</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Wine and cava tour, with a tasting of 4 wines and 4 paired wine cellars with a wide range of tapas. 4x4 ride through the vineyards with a local winemaker. Visit a wine cellar and a 2000-year-old cellar.</t>
+          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Wine Tastings with Tapas Vineyard Tour on 4x4 from Barcelona</t>
+          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P7</t>
+          <t>PRODUCTCODE: 332541P596</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
+          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
+          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P230</t>
+          <t>PRODUCTCODE: 195355P8</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
+          <t>Summarized description: Your guide will give you all the information you need, and the liquors are really good. We start very early in the morning, so at the time to arrive Montserrat will be still quiet.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
+          <t xml:space="preserve">Title: MONTSERRAT, Liquor Tasting, Guided Tour </t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 340534P4</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P219</t>
+          <t>PRODUCTCODE: 239137P5</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a delicious brunch and to end, visit Montserrat Mountain. Full experience for those that want to experience the Catalan wineries from first hand.</t>
+          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: VIP Penedes &amp; Montserrat: Wine, Cava &amp; Oil Experience with Local Brunch</t>
+          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 250934P5</t>
+          <t>PRODUCTCODE: 196771P19</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
+          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 369086P1</t>
+          <t>PRODUCTCODE: 2512P38</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
+          <t>Summarized description: Ride the train to the top of the Montserrat mountains. Be captivated by the delightful voices of the boys' choir, the Escolania deMontserrat.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
+          <t>Title: Half day Trip to Montserrat - Easy Montserrat</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 2140SITGESMONT</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P22</t>
+          <t>PRODUCTCODE: 320728P2231</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
+          <t>Summarized description: Full-Day Wine and Food Tour takes place in Barcelona, Spain. Highlights include a visit to a local winery and a tour of the city's historic sites.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
+          <t>Title: Full Day Private Montserrat Wine Tour Experience from Barcelona</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 450997P1</t>
+          <t>PRODUCTCODE: 9866P149</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes a guided tour of the Natural Park and Montserrat Basilica. You'll also be transported in a fully equipped van to Alella, an important wine-producing region in Catalonia.</t>
+          <t>Summarized description: Montserrat is Catalonia's most emblematic mountain, topped by a Benedictine Monastery. Enjoy a complete lunch in a local farmhouse near the magnificent mountain of Montserrat.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Montserrat Full Day Tour With Wine gourmet Lunch</t>
+          <t>Title: Private Montserrat &amp; Lunch at Farmhouse with Hotel Pick up</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P42</t>
+          <t>PRODUCTCODE: 172305P61</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Monastery of Montserrat and learn all about the fascinating world of wine. The influence of the sun and the Mediterranean Sea make the Penedès a privileged territory for winemaking.</t>
+          <t>Summarized description: The Basilica of Montserrat is one of the oldest children's choirs in Europe. Walk around the sanctuary and imagine the different lives of the monks of the place through the centuries.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat &amp; Penedes, Wine, Cava, Tapas &amp; 4WD Experience from Barcelona</t>
+          <t>Title: Montserrat tour and Liqueurs tasting</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P145</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17629,1056 +17629,6 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr"/>
     </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Spain. It is home to a monastery and a family run farmhouse. Enjoy a 3 course menu with breathtaking views while living a unique experience.</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Title: Private Tour Montserrat Monastery and visit Farmhouse with Lunch</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239937P88</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239937P4</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 11498P225</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
-      <c r="H1158" t="inlineStr"/>
-      <c r="I1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
-      <c r="H1159" t="inlineStr"/>
-      <c r="I1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr"/>
-      <c r="I1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
-      <c r="I1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 145071P100</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
-      <c r="I1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
-      <c r="H1163" t="inlineStr"/>
-      <c r="I1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr"/>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
-      <c r="H1164" t="inlineStr"/>
-      <c r="I1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 26586P6</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Summarized description: Get out of the city for a full-day private tour of Montserrat. Explore the famous monastery, listen to a children’s choir, and ride a funicular up the mountain.</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Mountain Experience</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5468MBM8</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is a half-day trip from Barcelona. Getaway to the Montserrat mountains is on the agenda for the holidaymakers.</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Half-day Trip from Barcelona with Japanese Guide</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P140</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 340534P4</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239137P5</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 196771P19</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2140SITGESMONT</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 139289P184</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: Montserrat: Guided Tour from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 3394P49</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Summarized description: Wine &amp; tapas walking tour to historical and hidden bars. Enjoy five wines and more than five food pairings over the course of a wine walking tour of two and a half hours.</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Title: Wine &amp; Tapas meal experience with Flamenco Show in Barcelona</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/5716GOLFWINE.xlsx
+++ b/experiment_results/5716GOLFWINE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wildlife Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wildlife Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cooking Classes']</t>
+          <t>Category: ['Cooking Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P107</t>
+          <t>PRODUCTCODE: 3142MONT</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is an ideal trip to spend a fun day in nature, just a few kilometers away from Barcelona. Take home exclusive memories in this amazing day in the countryside.</t>
+          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
         </is>
       </c>
       <c r="B873" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Visit and Lunch at Farmhouse from Barcelona</t>
+          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>TotalReviews: 1887</t>
+          <t>TotalReviews: 993</t>
         </is>
       </c>
       <c r="B875" t="inlineStr"/>
@@ -13627,7 +13627,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT</t>
+          <t>PRODUCTCODE: 9866P27</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
+          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
+          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 993</t>
+          <t>TotalReviews: 276</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P27</t>
+          <t>PRODUCTCODE: 62766P4</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
+          <t>Summarized description: We will start the day by visiting the Benedictine Abbey of Santa Maria de Montserrat. Then we will go to the nearby town of São Sebastián, where we will stay for a few days. We will end the day with a trip to the town of Montserrrat, which is famous for its natural beauty.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
+          <t>Title: Montserrat Hiking Off the Beaten Path &amp; Monastery. Small Group Tour</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>TotalReviews: 276</t>
+          <t>TotalReviews: 174</t>
         </is>
       </c>
       <c r="B885" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P216</t>
+          <t>PRODUCTCODE: 9866P81</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
+          <t>Summarized description: Make a pilgrimage to the mystical mountaintop retreat of Montserrat in this 5-hour excursion from Barcelona. Your guide will invite you on an exploration of this nearly 1,000-year-old Benedictine Monastery.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
+          <t>Title: Montserrat Private Tour with Hotel pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 133</t>
+          <t>TotalReviews: 142</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P3</t>
+          <t>PRODUCTCODE: 3731P216</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Half-day tour from Barcelona. Afternoon is the best time because there are less people in Montserrat than in the morning. Learn about the history of the area and 4,051-foot-tall (1,234-meter) MontserRat mountain from your guide.</t>
+          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Title: Half-Day Guided Montserrat Tour in Barcelona</t>
+          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 130</t>
+          <t>TotalReviews: 133</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P13</t>
+          <t>PRODUCTCODE: 7548P3</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
+          <t>Summarized description: Half-day tour from Barcelona. Afternoon is the best time because there are less people in Montserrat than in the morning. Learn about the history of the area and 4,051-foot-tall (1,234-meter) MontserRat mountain from your guide.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Guided Tour with Pick up</t>
+          <t>Title: Half-Day Guided Montserrat Tour in Barcelona</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 84</t>
+          <t>TotalReviews: 130</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P159</t>
+          <t>PRODUCTCODE: 16168P34</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
+          <t>Summarized description: The Monastery of Montserrat is one of Spain's most popular tourist attractions. Enjoy a tour of the monastery, followed by a tasting of locally produced liquors.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
+          <t>Title: Montserrat Full Day Tour with Farmhouse Lunch and Winery Visit</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 117</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7071P6</t>
+          <t>PRODUCTCODE: 161438P2</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
+          <t>Summarized description: Montserrat’s Natural Park and its Monastery with a passionate local guide in small groups up to a maximum 8 people. We will walk on the same paths used by pilgrims hundreds of years ago, we will get inspired by Montserrat's fascinating flora and fauna.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
+          <t>Title: From Barcelona: Montserrat Monastery &amp; Scenic Mountain Hike</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 107</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P6</t>
+          <t>PRODUCTCODE: 161438P1</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
+          <t>Summarized description: The first place we visit in Montserrat’s Natural Park is its Benedictine Monastery, first built on the 11th century. The Monastery is a strong symbol of spirituality and unity for the local people. During the hike we walk on the same paths used by pilgrims hundreds of years ago.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
+          <t>Title: Montserrat Monastery and Hiking Experience from Barcelona</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 46</t>
+          <t>TotalReviews: 89</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P50</t>
+          <t>PRODUCTCODE: 5689P13</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
+          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
+          <t>Title: Montserrat Private Guided Tour with Pick up</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 84</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P4</t>
+          <t>PRODUCTCODE: 6874P159</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
+          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
+          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P16</t>
+          <t>PRODUCTCODE: 7071P6</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
+          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
+          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT_P</t>
+          <t>PRODUCTCODE: 14218P6</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
+          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
+          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 46</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P24</t>
+          <t>PRODUCTCODE: 9866P50</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
+          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
+          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P18</t>
+          <t>PRODUCTCODE: 7548P4</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
+          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
+          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P49</t>
+          <t>PRODUCTCODE: 110975P16</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
+          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
+          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P353</t>
+          <t>PRODUCTCODE: 3142MONT_P</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a must-see destination for families. You and your kids can visit the farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
+          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Family Day Trip: Magical Montserrat</t>
+          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35099P6</t>
+          <t>PRODUCTCODE: 17377P24</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
+          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
+          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P5</t>
+          <t>PRODUCTCODE: 25359P18</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
+          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
+          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P6</t>
+          <t>PRODUCTCODE: 9866P49</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
+          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Montserrat and Cava Visit</t>
+          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7801P8</t>
+          <t>PRODUCTCODE: 24380P353</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
+          <t>Summarized description: Montserrat is a must-see destination for families. You and your kids can visit the farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
+          <t>Title: Family Day Trip: Magical Montserrat</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108212P5</t>
+          <t>PRODUCTCODE: 35099P6</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: The tour includes a private car trip to Montserrat Mountain and monasterial area. We'll hear the singuings of the Choir (according to availability - Tickets are extra payment). We'll visit Penedés region and visit one of the exclussive oldest wineries at the area.</t>
+          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Montserrat &amp; best winery private tour experience with a local expertise</t>
+          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P18</t>
+          <t>PRODUCTCODE: 155988P5</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
+          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
+          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P131</t>
+          <t>PRODUCTCODE: 23558P6</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
+          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
+          <t>Title: Private Tour: Montserrat and Cava Visit</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P54</t>
+          <t>PRODUCTCODE: 7801P8</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
+          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Montserrat Day Trip from Barcelona</t>
+          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P19</t>
+          <t>PRODUCTCODE: 108212P5</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: This 8 hour tour offers the posibility to discover the nearest wine region near Barcelona (Penedes) This region is known for the sparkling wine production, our "CAVA", our local champagne.</t>
+          <t>Summarized description: The tour includes a private car trip to Montserrat Mountain and monasterial area. We'll hear the singuings of the Choir (according to availability - Tickets are extra payment). We'll visit Penedés region and visit one of the exclussive oldest wineries at the area.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Wineries &amp; Montserrat private tour (8 hours)</t>
+          <t>Title: Montserrat &amp; best winery private tour experience with a local expertise</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117626P17</t>
+          <t>PRODUCTCODE: 239937P18</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to visit this place, so special for the people of Barcelona, is to do it with a local driver/guide. Your driver will pick you up in a luxury vehicle, during the way to Montserrat he will explain the history and legends of this sacred place.</t>
+          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Half Day Private Montserrat Tour</t>
+          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P11</t>
+          <t>PRODUCTCODE: 9866P131</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
+          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P5</t>
+          <t>PRODUCTCODE: 108053P19</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the mountain of Montserrat on this day trip from Barcelona. Travel by bus to the mountain and take the cogwheel train to a viewpoint on top of the mountain. Visit the Benedictine Abbey and see the famed Virgin of MontSerrat sanctuary.</t>
+          <t>Summarized description: This 8 hour tour offers the posibility to discover the nearest wine region near Barcelona (Penedes) This region is known for the sparkling wine production, our "CAVA", our local champagne.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half Day Guided Tour And Round trip Transport</t>
+          <t>Title: Wineries &amp; Montserrat private tour (8 hours)</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P115</t>
+          <t>PRODUCTCODE: 117626P17</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
+          <t>Summarized description: The best way to visit this place, so special for the people of Barcelona, is to do it with a local driver/guide. Your driver will pick you up in a luxury vehicle, during the way to Montserrat he will explain the history and legends of this sacred place.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
+          <t>Title: Half Day Private Montserrat Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P7</t>
+          <t>PRODUCTCODE: 17377P11</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
+          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
+          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 239922P5</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Explore the mountain of Montserrat on this day trip from Barcelona. Travel by bus to the mountain and take the cogwheel train to a viewpoint on top of the mountain. Visit the Benedictine Abbey and see the famed Virgin of MontSerrat sanctuary.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Montserrat Half Day Guided Tour And Round trip Transport</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137266P2168</t>
+          <t>PRODUCTCODE: 8647P115</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
+          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
+          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35102P11</t>
+          <t>PRODUCTCODE: 196771P7</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: The sights of Montserrat will be introduced in an easy and friendly way. Local gastronomy and wine tasting will make your experience unforgettable.</t>
+          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Pearl of Catalonia, Private Tour to Montserrat, Lunch and Wine Testing.</t>
+          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 250934P5</t>
+          <t>PRODUCTCODE: 244199P34</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
+          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
+          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 369086P1</t>
+          <t>PRODUCTCODE: 137266P2168</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
+          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
+          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101102P2</t>
+          <t>PRODUCTCODE: 35102P11</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalunya's pride and a part of the Santiago de Compostela pilgrim route. The Benedictine monks produce some extraordinary liqueurs using local herbs and fruits. Don't miss the opportunity to hear the most famous children choir "Escolania"</t>
+          <t>Summarized description: The sights of Montserrat will be introduced in an easy and friendly way. Local gastronomy and wine tasting will make your experience unforgettable.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Awesome Montserrat private tour</t>
+          <t>Title: Pearl of Catalonia, Private Tour to Montserrat, Lunch and Wine Testing.</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 250934P5</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P22</t>
+          <t>PRODUCTCODE: 369086P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
+          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
+          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183616P4</t>
+          <t>PRODUCTCODE: 101102P2</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is also known as the "Hometown of the Catalan Heart" It is a sacred place for the religion of Mary. The mountain railway runs only once an hour, so you cannot get on during the tour time.</t>
+          <t>Summarized description: Montserrat is Catalunya's pride and a part of the Santiago de Compostela pilgrim route. The Benedictine monks produce some extraordinary liqueurs using local herbs and fruits. Don't miss the opportunity to hear the most famous children choir "Escolania"</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Montserrat afternoon tour</t>
+          <t>Title: Awesome Montserrat private tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 203774P2</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is an always enjoyable visit. The environment, nature, spirituality, there is always a feeling of well-being after the visit. Enjoy a different gastronomic experience to any restaurant that can be found in a big city.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour, Lunch &amp; Caves</t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P88</t>
+          <t>PRODUCTCODE: 112780P22</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
+          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
+          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P3</t>
+          <t>PRODUCTCODE: 183616P4</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. duration of the tour: 5 hours from pick up time until drop off. you will have 3 hours to visit. the monastery, our lady of Montser rat (the black madonna) and enjoy the concert of the boys choir.</t>
+          <t>Summarized description: Montserrat is also known as the "Hometown of the Catalan Heart" It is a sacred place for the religion of Mary. The mountain railway runs only once an hour, so you cannot get on during the tour time.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Experience Montserrat (5 hours)</t>
+          <t>Title: Montserrat afternoon tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P4</t>
+          <t>PRODUCTCODE: 203774P2</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
+          <t>Summarized description: Montserrat is an always enjoyable visit. The environment, nature, spirituality, there is always a feeling of well-being after the visit. Enjoy a different gastronomic experience to any restaurant that can be found in a big city.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
+          <t>Title: Montserrat Tour, Lunch &amp; Caves</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P596</t>
+          <t>PRODUCTCODE: 239937P88</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
+          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
+          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195355P8</t>
+          <t>PRODUCTCODE: 108053P3</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will give you all the information you need, and the liquors are really good. We start very early in the morning, so at the time to arrive Montserrat will be still quiet.</t>
+          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. duration of the tour: 5 hours from pick up time until drop off. you will have 3 hours to visit. the monastery, our lady of Montser rat (the black madonna) and enjoy the concert of the boys choir.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: MONTSERRAT, Liquor Tasting, Guided Tour </t>
+          <t>Title: Experience Montserrat (5 hours)</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340534P4</t>
+          <t>PRODUCTCODE: 239937P4</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
+          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
+          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239137P5</t>
+          <t>PRODUCTCODE: 332541P596</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
+          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
+          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P19</t>
+          <t>PRODUCTCODE: 195355P8</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
+          <t>Summarized description: Your guide will give you all the information you need, and the liquors are really good. We start very early in the morning, so at the time to arrive Montserrat will be still quiet.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
+          <t xml:space="preserve">Title: MONTSERRAT, Liquor Tasting, Guided Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2512P38</t>
+          <t>PRODUCTCODE: 340534P4</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Ride the train to the top of the Montserrat mountains. Be captivated by the delightful voices of the boys' choir, the Escolania deMontserrat.</t>
+          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Half day Trip to Montserrat - Easy Montserrat</t>
+          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140SITGESMONT</t>
+          <t>PRODUCTCODE: 239137P5</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
+          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
+          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320728P2231</t>
+          <t>PRODUCTCODE: 196771P19</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Full-Day Wine and Food Tour takes place in Barcelona, Spain. Highlights include a visit to a local winery and a tour of the city's historic sites.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Montserrat Wine Tour Experience from Barcelona</t>
+          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P149</t>
+          <t>PRODUCTCODE: 2512P38</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia's most emblematic mountain, topped by a Benedictine Monastery. Enjoy a complete lunch in a local farmhouse near the magnificent mountain of Montserrat.</t>
+          <t>Summarized description: Ride the train to the top of the Montserrat mountains. Be captivated by the delightful voices of the boys' choir, the Escolania deMontserrat.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat &amp; Lunch at Farmhouse with Hotel Pick up</t>
+          <t>Title: Half day Trip to Montserrat - Easy Montserrat</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172305P61</t>
+          <t>PRODUCTCODE: 2140SITGESMONT</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of Montserrat is one of the oldest children's choirs in Europe. Walk around the sanctuary and imagine the different lives of the monks of the place through the centuries.</t>
+          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Montserrat tour and Liqueurs tasting</t>
+          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 320728P2231</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17629,6 +17629,231 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr"/>
     </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Summarized description: Full-Day Wine and Food Tour takes place in Barcelona, Spain. Highlights include a visit to a local winery and a tour of the city's historic sites.</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Title: Full Day Private Montserrat Wine Tour Experience from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9866P149</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Summarized description: Montserrat is Catalonia's most emblematic mountain, topped by a Benedictine Monastery. Enjoy a complete lunch in a local farmhouse near the magnificent mountain of Montserrat.</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Title: Private Montserrat &amp; Lunch at Farmhouse with Hotel Pick up</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 172305P61</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Summarized description: The Basilica of Montserrat is one of the oldest children's choirs in Europe. Walk around the sanctuary and imagine the different lives of the monks of the place through the centuries.</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
+      <c r="I1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>Title: Montserrat tour and Liqueurs tasting</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr"/>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
+      <c r="H1154" t="inlineStr"/>
+      <c r="I1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr"/>
+      <c r="H1155" t="inlineStr"/>
+      <c r="I1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr"/>
+      <c r="H1156" t="inlineStr"/>
+      <c r="I1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr"/>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr"/>
+      <c r="H1157" t="inlineStr"/>
+      <c r="I1157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/5716GOLFWINE.xlsx
+++ b/experiment_results/5716GOLFWINE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1157"/>
+  <dimension ref="A1:I1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wildlife Tours', 'Hiking']</t>
+          <t>Category: ['Wildlife Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wildlife Tours', 'Hiking']</t>
+          <t>Category: ['Wildlife Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P9</t>
+          <t>PRODUCTCODE: 3142MONT</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a national Park and place of pilgrimage from millions of people around the world. Join your tour guide in an air-conditioned private vehicle in Barcelona for a drive up the mountain. Enjoy the view and hear about Montserrat’s Basilica and Monastery, home of the Black Madonna.</t>
+          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
         </is>
       </c>
       <c r="B868" t="inlineStr"/>
@@ -13522,7 +13522,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Half Day Experience from Barcelona</t>
+          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13537,7 +13537,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>TotalReviews: 2689</t>
+          <t>TotalReviews: 993</t>
         </is>
       </c>
       <c r="B870" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT</t>
+          <t>PRODUCTCODE: 9866P27</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery and family run winery. Full-day small group tour by minivan from Barcelona. You'll travel in a comfortable air-conditioned minivan.</t>
+          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
         </is>
       </c>
       <c r="B873" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Title: Small Group Montserrat Tour &amp; Winery Visit with Farmhouse Lunch</t>
+          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>TotalReviews: 993</t>
+          <t>TotalReviews: 276</t>
         </is>
       </c>
       <c r="B875" t="inlineStr"/>
@@ -13642,7 +13642,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P27</t>
+          <t>PRODUCTCODE: 3731P216</t>
         </is>
       </c>
       <c r="B877" t="inlineStr"/>
@@ -13657,7 +13657,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Summarized description: Small Group tour of Montserrat offers a unique insight into the culture of the region. The tour includes a visit to a local winery and a trip to the mythical mountain.</t>
+          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
         </is>
       </c>
       <c r="B878" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Title: Montserrat,Vineyard, Wine Tasting Small Group Tour &amp; Hotel Pickup</t>
+          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>TotalReviews: 276</t>
+          <t>TotalReviews: 133</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62766P4</t>
+          <t>PRODUCTCODE: 16168P34</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Summarized description: We will start the day by visiting the Benedictine Abbey of Santa Maria de Montserrat. Then we will go to the nearby town of São Sebastián, where we will stay for a few days. We will end the day with a trip to the town of Montserrrat, which is famous for its natural beauty.</t>
+          <t>Summarized description: The Monastery of Montserrat is one of Spain's most popular tourist attractions. Enjoy a tour of the monastery, followed by a tasting of locally produced liquors.</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Title: Montserrat Hiking Off the Beaten Path &amp; Monastery. Small Group Tour</t>
+          <t>Title: Montserrat Full Day Tour with Farmhouse Lunch and Winery Visit</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>TotalReviews: 174</t>
+          <t>TotalReviews: 117</t>
         </is>
       </c>
       <c r="B885" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P81</t>
+          <t>PRODUCTCODE: 5689P13</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Make a pilgrimage to the mystical mountaintop retreat of Montserrat in this 5-hour excursion from Barcelona. Your guide will invite you on an exploration of this nearly 1,000-year-old Benedictine Monastery.</t>
+          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Tour with Hotel pick-up from Barcelona</t>
+          <t>Title: Montserrat Private Guided Tour with Pick up</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 84</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P216</t>
+          <t>PRODUCTCODE: 7071P6</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
+          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
+          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 133</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P3</t>
+          <t>PRODUCTCODE: 9866P50</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Half-day tour from Barcelona. Afternoon is the best time because there are less people in Montserrat than in the morning. Learn about the history of the area and 4,051-foot-tall (1,234-meter) MontserRat mountain from your guide.</t>
+          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Half-Day Guided Montserrat Tour in Barcelona</t>
+          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 130</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P34</t>
+          <t>PRODUCTCODE: 7548P4</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: The Monastery of Montserrat is one of Spain's most popular tourist attractions. Enjoy a tour of the monastery, followed by a tasting of locally produced liquors.</t>
+          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Montserrat Full Day Tour with Farmhouse Lunch and Winery Visit</t>
+          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 117</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161438P2</t>
+          <t>PRODUCTCODE: 110975P16</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat’s Natural Park and its Monastery with a passionate local guide in small groups up to a maximum 8 people. We will walk on the same paths used by pilgrims hundreds of years ago, we will get inspired by Montserrat's fascinating flora and fauna.</t>
+          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: Montserrat Monastery &amp; Scenic Mountain Hike</t>
+          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 107</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161438P1</t>
+          <t>PRODUCTCODE: 3142MONT_P</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: The first place we visit in Montserrat’s Natural Park is its Benedictine Monastery, first built on the 11th century. The Monastery is a strong symbol of spirituality and unity for the local people. During the hike we walk on the same paths used by pilgrims hundreds of years ago.</t>
+          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery and Hiking Experience from Barcelona</t>
+          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P13</t>
+          <t>PRODUCTCODE: 17377P24</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat tour includes personal service, air-conditioned transportation, and a local expert guide. You can also extend the tour to a full-day excursion and visit a local winery (Cava Producer)</t>
+          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Guided Tour with Pick up</t>
+          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 84</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P159</t>
+          <t>PRODUCTCODE: 25359P18</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
+          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
+          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7071P6</t>
+          <t>PRODUCTCODE: 3142PRTBCNMONT</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
+          <t>Summarized description: The mountain of Montserrat and the Freixenet winery are just a short walk from the port. The winery is part of Spain’s Cava Trail and offers a cellar tour and a cava tasting.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
+          <t>Title: Barcelona Shore Excursion: Private Montserrat and Cava Trail Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P6</t>
+          <t>PRODUCTCODE: 9866P49</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
+          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
+          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 46</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P50</t>
+          <t>PRODUCTCODE: 35099P6</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
+          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
+          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P4</t>
+          <t>PRODUCTCODE: 155988P5</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
+          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
+          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P16</t>
+          <t>PRODUCTCODE: 9866P46</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Montserrat Monastery Benedictine and its spectacular architecture. Taste a delicious catalan lunch in a traditional restaurant. Visit a Winery of the 14th century in the Penedés region.</t>
+          <t>Summarized description: Private tour takes you to the verdant vineyards of the Penedes region. At the foot of the Montserrat Mountain, visit a family run vineyards that has been cultivating grapes since 1385.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Private Tour with Lunch, Wine &amp; Cava Tasting in a Penedes Winery </t>
+          <t>Title: Private Cava and Vineyards Half-Day Tour with Hotel pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT_P</t>
+          <t>PRODUCTCODE: 23558P6</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
+          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
+          <t>Title: Private Tour: Montserrat and Cava Visit</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P24</t>
+          <t>PRODUCTCODE: 7801P8</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Head to Montserrat mountain in private transport to visit the virgin. Enjoy a wine experience at an organic production winery. After the tour, we'll return to Barcelona and we'll drop you off at your hotel or apartment.</t>
+          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Montserrat Tour &amp; Organic Farming Winery + Local Lunch </t>
+          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P18</t>
+          <t>PRODUCTCODE: 108212P5</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
+          <t>Summarized description: The tour includes a private car trip to Montserrat Mountain and monasterial area. We'll hear the singuings of the Choir (according to availability - Tickets are extra payment). We'll visit Penedés region and visit one of the exclussive oldest wineries at the area.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
+          <t>Title: Montserrat &amp; best winery private tour experience with a local expertise</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P49</t>
+          <t>PRODUCTCODE: 144682P54</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
+          <t>Summarized description: We will start our tour on the outskirts of Barcelona, on the most emblematic peak of Catalonia, the Montserrat massif. We will visit the wine cellar of the Torres Family, who produce some of the best wines with strains of Cabernet Sauvignon.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
+          <t>Title: Montserrat wine tasting &amp; Sitges -Reduced group hotel pick up from Barcelona</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P353</t>
+          <t>PRODUCTCODE: 239937P18</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a must-see destination for families. You and your kids can visit the farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
+          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Family Day Trip: Magical Montserrat</t>
+          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35099P6</t>
+          <t>PRODUCTCODE: 9866P131</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Hike the mythical mountain of Montserrat and enjoy a wine tasting in a stately country house. Tasting one of best award-winning worldwide sparkling “Cava” wines while you are experiencing the winery life in the countryside.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Montserrat hike, wine tasting, and tapas from Barcelona</t>
+          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P5</t>
+          <t>PRODUCTCODE: 17377P11</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Located in the heart of Catalonia the Montserrat holy mountain is an icon for Catalan people. Next stopt at the penedés Winery, pioneer in the production of Organic Wine, they have a good collection of outstanding Premium Awarded wines.</t>
+          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Montserrat Mountain, Wine Tasting &amp; Tapas Lunch</t>
+          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P6</t>
+          <t>PRODUCTCODE: 26586P4</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Private full-day tour of Montserrat and Cava State. Enjoy private transportation in a new and air conditioned Mercedes Benz bus only for your group. Visit the sacred mountain ofMontserrat, with it's gorgeous mountaintop monastery.</t>
+          <t>Summarized description: 8-hour private tour to Montserrat and Sant Sadurní, from Barcelona. Visit the charming monastery, home to the statue of the Black Madonna. Enjoy a nice cava tasting at the end of the visit.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Montserrat and Cava Visit</t>
+          <t>Title: Tour Montserrat + Caves Sant Sadurní</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7801P8</t>
+          <t>PRODUCTCODE: 8647P115</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat Monastery is located high above the Natural Park of Montserrat Mountain. It is one of those places you will remember for the rest of your life.</t>
+          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery &amp; Wineries - Private tour</t>
+          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108212P5</t>
+          <t>PRODUCTCODE: 23558P21</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: The tour includes a private car trip to Montserrat Mountain and monasterial area. We'll hear the singuings of the Choir (according to availability - Tickets are extra payment). We'll visit Penedés region and visit one of the exclussive oldest wineries at the area.</t>
+          <t>Summarized description: Montserrat and the Penedes wine region are the heart of the cava and wine production in Catalonia. Visit the most famousmonastery of Europe at 1,236 metres (4,055 ft) above the valley floor and the Black Madonna.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Montserrat &amp; best winery private tour experience with a local expertise</t>
+          <t>Title: Private Small Group Full Day Tour- Montserrat and Cava Visit with Lunch and Transportation</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P18</t>
+          <t>PRODUCTCODE: 196771P7</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the highest peak in the region of Catalonia. It exhibits a unique rocky formation due to its exposure to various elements such as wind and rain.</t>
+          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Premiuam Montserrat Tour with Tapas (Small Group)</t>
+          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P131</t>
+          <t>PRODUCTCODE: 137266P2168</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain, topped by a Benedictine Monastery. Your guide will pick you up at your accommodation at Barcelona in a comfortable private vehicle.</t>
+          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Montserrat &amp; Lunch at Farmhouse in Small Group Tour with Hotel Pick up</t>
+          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P19</t>
+          <t>PRODUCTCODE: 2140P219</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: This 8 hour tour offers the posibility to discover the nearest wine region near Barcelona (Penedes) This region is known for the sparkling wine production, our "CAVA", our local champagne.</t>
+          <t>Summarized description: Enjoy a delicious brunch and to end, visit Montserrat Mountain. Full experience for those that want to experience the Catalan wineries from first hand.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Wineries &amp; Montserrat private tour (8 hours)</t>
+          <t>Title: VIP Penedes &amp; Montserrat: Wine, Cava &amp; Oil Experience with Local Brunch</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117626P17</t>
+          <t>PRODUCTCODE: 35102P11</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to visit this place, so special for the people of Barcelona, is to do it with a local driver/guide. Your driver will pick you up in a luxury vehicle, during the way to Montserrat he will explain the history and legends of this sacred place.</t>
+          <t>Summarized description: The sights of Montserrat will be introduced in an easy and friendly way. Local gastronomy and wine tasting will make your experience unforgettable.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Half Day Private Montserrat Tour</t>
+          <t>Title: Pearl of Catalonia, Private Tour to Montserrat, Lunch and Wine Testing.</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P11</t>
+          <t>PRODUCTCODE: 250934P5</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
+          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
+          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P5</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the mountain of Montserrat on this day trip from Barcelona. Travel by bus to the mountain and take the cogwheel train to a viewpoint on top of the mountain. Visit the Benedictine Abbey and see the famed Virgin of MontSerrat sanctuary.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half Day Guided Tour And Round trip Transport</t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P115</t>
+          <t>PRODUCTCODE: 303267P2</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
+          <t>Summarized description: We will travel to Montserrat to see and taste some of the best wines in the world. We will also visit the famous Black Madonna, where we will hear the story of how she came to be.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
+          <t>Title: Full-day tour to Montserrat mountain and a visit to a winery from Barcelona</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P7</t>
+          <t>PRODUCTCODE: 112780P22</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montserrat your private local guide and driver! See the magical Montser rat mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks! Visit the beautiful basilica, where you'll get to see the Black Madonna.</t>
+          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Half Day Tour (Private Tour) </t>
+          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 6874P42</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Visit the Monastery of Montserrat and learn all about the fascinating world of wine. The influence of the sun and the Mediterranean Sea make the Penedès a privileged territory for winemaking.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Private Montserrat &amp; Penedes, Wine, Cava, Tapas &amp; 4WD Experience from Barcelona</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137266P2168</t>
+          <t>PRODUCTCODE: 203774P2</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
+          <t>Summarized description: Montserrat is an always enjoyable visit. The environment, nature, spirituality, there is always a feeling of well-being after the visit. Enjoy a different gastronomic experience to any restaurant that can be found in a big city.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
+          <t>Title: Montserrat Tour, Lunch &amp; Caves</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35102P11</t>
+          <t>PRODUCTCODE: 239937P88</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The sights of Montserrat will be introduced in an easy and friendly way. Local gastronomy and wine tasting will make your experience unforgettable.</t>
+          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Pearl of Catalonia, Private Tour to Montserrat, Lunch and Wine Testing.</t>
+          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 250934P5</t>
+          <t>PRODUCTCODE: 108053P3</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Board a coach from Barcelona to the magical mountain of Montserrat. Discover the secrets of fascinating world and enjoy a wine tasting paired with an Iberian Ham tapa. Included a gastronomic menu paired with wine.</t>
+          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. duration of the tour: 5 hours from pick up time until drop off. you will have 3 hours to visit. the monastery, our lady of Montser rat (the black madonna) and enjoy the concert of the boys choir.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Montserrat, Torres wine cellars &amp; stiges with gastronomic lunch</t>
+          <t>Title: Experience Montserrat (5 hours)</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 369086P1</t>
+          <t>PRODUCTCODE: 239937P4</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
+          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
+          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101102P2</t>
+          <t>PRODUCTCODE: 332541P596</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalunya's pride and a part of the Santiago de Compostela pilgrim route. The Benedictine monks produce some extraordinary liqueurs using local herbs and fruits. Don't miss the opportunity to hear the most famous children choir "Escolania"</t>
+          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Awesome Montserrat private tour</t>
+          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 11498P225</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P22</t>
+          <t>PRODUCTCODE: 145071P100</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The Basilica of Montserrat is one of the most beautiful in Spain. For 13 centuries, pilgrims from all over the world have flocked to it. You, too, can touch the Catalan shrine Black Madonna and make a cherished wish.</t>
+          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Half-Day Tour with Tapas and Wine Tasting</t>
+          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183616P4</t>
+          <t>PRODUCTCODE: 340534P4</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is also known as the "Hometown of the Catalan Heart" It is a sacred place for the religion of Mary. The mountain railway runs only once an hour, so you cannot get on during the tour time.</t>
+          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Montserrat afternoon tour</t>
+          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 203774P2</t>
+          <t>PRODUCTCODE: 2140SITGESMONT</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is an always enjoyable visit. The environment, nature, spirituality, there is always a feeling of well-being after the visit. Enjoy a different gastronomic experience to any restaurant that can be found in a big city.</t>
+          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Montserrat Tour, Lunch &amp; Caves</t>
+          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P88</t>
+          <t>PRODUCTCODE: 320728P2231</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
+          <t>Summarized description: Full-Day Wine and Food Tour takes place in Barcelona, Spain. Highlights include a visit to a local winery and a tour of the city's historic sites.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
+          <t>Title: Full Day Private Montserrat Wine Tour Experience from Barcelona</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P3</t>
+          <t>PRODUCTCODE: 9866P149</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Montserrat is a tour that permits to visit the unique mountain ofMontserrat in the heart of Catalonia. duration of the tour: 5 hours from pick up time until drop off. you will have 3 hours to visit. the monastery, our lady of Montser rat (the black madonna) and enjoy the concert of the boys choir.</t>
+          <t>Summarized description: Montserrat is Catalonia's most emblematic mountain, topped by a Benedictine Monastery. Enjoy a complete lunch in a local farmhouse near the magnificent mountain of Montserrat.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Experience Montserrat (5 hours)</t>
+          <t>Title: Private Montserrat &amp; Lunch at Farmhouse with Hotel Pick up</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P4</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17029,831 +17029,6 @@
       <c r="H1102" t="inlineStr"/>
       <c r="I1102" t="inlineStr"/>
     </row>
-    <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is home to the 1000-year-old Montserrat Monastery. Visit the local farmers market, discover the stories about the monastery and enjoy the magical atmosphere between the mountains.</t>
-        </is>
-      </c>
-      <c r="B1103" t="inlineStr"/>
-      <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr"/>
-      <c r="E1103" t="inlineStr"/>
-      <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr"/>
-      <c r="I1103" t="inlineStr"/>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Monastery Premium Tour: Cable Car &amp; Farmhouse Lunch included</t>
-        </is>
-      </c>
-      <c r="B1104" t="inlineStr"/>
-      <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr"/>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr"/>
-      <c r="I1104" t="inlineStr"/>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
-      <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr"/>
-      <c r="I1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr"/>
-      <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr"/>
-      <c r="I1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 332541P596</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr"/>
-      <c r="I1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr"/>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr"/>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr"/>
-      <c r="I1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr"/>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr"/>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr"/>
-      <c r="I1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr"/>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr"/>
-      <c r="I1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr"/>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr"/>
-      <c r="I1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 195355P8</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr"/>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr"/>
-      <c r="I1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Summarized description: Your guide will give you all the information you need, and the liquors are really good. We start very early in the morning, so at the time to arrive Montserrat will be still quiet.</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr"/>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
-      <c r="I1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: MONTSERRAT, Liquor Tasting, Guided Tour </t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr"/>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr"/>
-      <c r="I1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr"/>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr"/>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr"/>
-      <c r="I1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
-      <c r="I1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 340534P4</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
-      <c r="I1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the wonders of the famous mountain, a place of pilgrimage from millions of people around the world. Enjoy the views and a guided tour about Montserrat’s Basilica and Monastery, home of La Moreneta.</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr"/>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr"/>
-      <c r="I1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Title: Montserrat Half Day Private Guided Tour with Transfers</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr"/>
-      <c r="I1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr"/>
-      <c r="I1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
-      <c r="H1121" t="inlineStr"/>
-      <c r="I1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239137P5</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr"/>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr"/>
-      <c r="I1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 196771P19</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr"/>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr"/>
-      <c r="I1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
-      <c r="I1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
-      <c r="I1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr"/>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
-      <c r="H1131" t="inlineStr"/>
-      <c r="I1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2512P38</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr"/>
-      <c r="I1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride the train to the top of the Montserrat mountains. Be captivated by the delightful voices of the boys' choir, the Escolania deMontserrat.</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
-      <c r="H1133" t="inlineStr"/>
-      <c r="I1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Title: Half day Trip to Montserrat - Easy Montserrat</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr"/>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr"/>
-      <c r="I1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr"/>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr"/>
-      <c r="I1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr"/>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr"/>
-      <c r="I1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2140SITGESMONT</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr"/>
-      <c r="I1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour Freixenet cava cellars with your knowledgeable guide. Then, visit the captivating village of Sitges with its beautiful beaches. In the afternoon, travel up to Montserrat by cog-wheel train. See the royal basilica and the 12th-century carving of the Black Virgin.</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr"/>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr"/>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr"/>
-      <c r="I1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Super Saver: Sitges, Freixenet Cava Wine Cellars and Montserrat Tour</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
-      <c r="I1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
-      <c r="H1140" t="inlineStr"/>
-      <c r="I1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
-      <c r="H1141" t="inlineStr"/>
-      <c r="I1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320728P2231</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr"/>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
-      <c r="H1142" t="inlineStr"/>
-      <c r="I1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Summarized description: Full-Day Wine and Food Tour takes place in Barcelona, Spain. Highlights include a visit to a local winery and a tour of the city's historic sites.</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Title: Full Day Private Montserrat Wine Tour Experience from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 9866P149</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is Catalonia's most emblematic mountain, topped by a Benedictine Monastery. Enjoy a complete lunch in a local farmhouse near the magnificent mountain of Montserrat.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Title: Private Montserrat &amp; Lunch at Farmhouse with Hotel Pick up</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 172305P61</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Summarized description: The Basilica of Montserrat is one of the oldest children's choirs in Europe. Walk around the sanctuary and imagine the different lives of the monks of the place through the centuries.</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Title: Montserrat tour and Liqueurs tasting</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
